--- a/biology/Botanique/Musée_du_bois_de_Seyssel/Musée_du_bois_de_Seyssel.xlsx
+++ b/biology/Botanique/Musée_du_bois_de_Seyssel/Musée_du_bois_de_Seyssel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_bois_de_Seyssel</t>
+          <t>Musée_du_bois_de_Seyssel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée du bois de Seyssel est un musée consacré au bois, situé à Seyssel, dans l'Ain, en France. Il possède le label musée de France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du bois de Seyssel est un musée consacré au bois, situé à Seyssel, dans l'Ain, en France. Il possède le label musée de France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_du_bois_de_Seyssel</t>
+          <t>Musée_du_bois_de_Seyssel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée présente des œuvres sur bois de Claudious Abry (1885 - 1972), menuisier né à Seyssel[1] ; on peut en particulier citer : un escalier de chaire d'église tournant, un escalier de pavillon et une hélice de bateau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée présente des œuvres sur bois de Claudious Abry (1885 - 1972), menuisier né à Seyssel ; on peut en particulier citer : un escalier de chaire d'église tournant, un escalier de pavillon et une hélice de bateau.
 Depuis une date non précisée le musée est fermé pour rénovation. Mais il se visite durant les journées du patrimoine.
 </t>
         </is>
